--- a/docs/eventos_timeline.xlsx
+++ b/docs/eventos_timeline.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>Sistema</t>
   </si>
@@ -74,6 +74,120 @@
   </si>
   <si>
     <t>Interfaces con la AFIP, Banco Nación y Cámaras Judiciales.</t>
+  </si>
+  <si>
+    <t>Plan Nacional de Regularización del Trabajo (PNRT)</t>
+  </si>
+  <si>
+    <t>Secretaría de Trabajo</t>
+  </si>
+  <si>
+    <t>Inspector Digital (INDI)</t>
+  </si>
+  <si>
+    <t>Sistema Ley 18695 (CPL)</t>
+  </si>
+  <si>
+    <t>Inspector Digital Competencia Federal (INDICFED)</t>
+  </si>
+  <si>
+    <t>Registro Único de Inspecciones, Infracciones y Sanciones (RUIIS) </t>
+  </si>
+  <si>
+    <t>Sistema de registro de Empresas de Servicios Eventuales</t>
+  </si>
+  <si>
+    <t>Sistema de Gestión de Ordenes de Inspección (GOI)</t>
+  </si>
+  <si>
+    <t>Sistema de Inspección de Trabajo Infantil Prohibido y Trabajo Adolescente Irregular (COODITIA)</t>
+  </si>
+  <si>
+    <t>Biblioteca digital de Convenios Colectivos de Trabajo</t>
+  </si>
+  <si>
+    <t>Sistema de Gestión de la Negociación Colectiva (DRT)</t>
+  </si>
+  <si>
+    <t>Sistema de Negociación Colectiva (actualmente en desarrollo)</t>
+  </si>
+  <si>
+    <t>DNAS</t>
+  </si>
+  <si>
+    <t>Sistema de Gestión del Programa de Recuperación Productiva (RePro)</t>
+  </si>
+  <si>
+    <t>Sistema Público de Registro de Empresas y Nómina de Trabajadores al Programa de Recuperación Productiva (Empresas en RePro)</t>
+  </si>
+  <si>
+    <t>Sistema del SECLO</t>
+  </si>
+  <si>
+    <t>Diarios y Revistas</t>
+  </si>
+  <si>
+    <t>Asistir</t>
+  </si>
+  <si>
+    <t>Sistema del Tribunal de Trabajo Doméstico</t>
+  </si>
+  <si>
+    <t>Sistema de Encuestas de la Red de Empresas contra el Trabajo Infantil (RedECTI)</t>
+  </si>
+  <si>
+    <t>Portal de empleo</t>
+  </si>
+  <si>
+    <t>Secretaría de Empleo</t>
+  </si>
+  <si>
+    <t>Sistema de Gestión de Proyectos</t>
+  </si>
+  <si>
+    <t>Sistema de Fiscalización y seguimiento de proyectos</t>
+  </si>
+  <si>
+    <t>Sistema de Liquidación de planes sociales</t>
+  </si>
+  <si>
+    <t>Sistema de Administración de Tarjetas Magnéticas</t>
+  </si>
+  <si>
+    <t>Sistema de Mesa de Entradas General</t>
+  </si>
+  <si>
+    <t>Sistema de Resoluciones y Normativa</t>
+  </si>
+  <si>
+    <t>Servicio de Firma digital de Normativa</t>
+  </si>
+  <si>
+    <t>Sistema de Oficios Judiciales</t>
+  </si>
+  <si>
+    <t>Sistema de Notificaciones</t>
+  </si>
+  <si>
+    <t>Sistema de Sumarios Administrativos</t>
+  </si>
+  <si>
+    <t>Sistema de Liquidación de Viáticos</t>
+  </si>
+  <si>
+    <t>Sistema de Liquidación de Fondos Rotatorios</t>
+  </si>
+  <si>
+    <t>Sistema de Concursos (en uso en múltiples organismos SINEP)</t>
+  </si>
+  <si>
+    <t>Sistema de Postulantes</t>
+  </si>
+  <si>
+    <t>Sistema del Centro de Asesoramiento Laboral (Callcenter)</t>
+  </si>
+  <si>
+    <t>Sistema de Dictámenes</t>
   </si>
 </sst>
 </file>
@@ -208,6 +322,302 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5">
+      <c t="s" r="A5">
+        <v>21</v>
+      </c>
+      <c t="s" r="D5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" r="A6">
+        <v>23</v>
+      </c>
+      <c t="s" r="D6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" r="A7">
+        <v>24</v>
+      </c>
+      <c t="s" r="D7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" r="A8">
+        <v>25</v>
+      </c>
+      <c t="s" r="D8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" r="A9">
+        <v>26</v>
+      </c>
+      <c t="s" r="D9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" r="A10">
+        <v>27</v>
+      </c>
+      <c t="s" r="D10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="s" r="A11">
+        <v>28</v>
+      </c>
+      <c t="s" r="D11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="s" r="A12">
+        <v>29</v>
+      </c>
+      <c t="s" r="D12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="s" r="A13">
+        <v>30</v>
+      </c>
+      <c t="s" r="D13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="s" r="A14">
+        <v>31</v>
+      </c>
+      <c t="s" r="D14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="s" r="A15">
+        <v>32</v>
+      </c>
+      <c t="s" r="D15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="s" r="A16">
+        <v>33</v>
+      </c>
+      <c t="s" r="D16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="s" r="A17">
+        <v>34</v>
+      </c>
+      <c t="s" r="D17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="s" r="A18">
+        <v>35</v>
+      </c>
+      <c t="s" r="D18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c t="s" r="A19">
+        <v>36</v>
+      </c>
+      <c t="s" r="D19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c t="s" r="A20">
+        <v>37</v>
+      </c>
+      <c t="s" r="D20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c t="s" r="A21">
+        <v>38</v>
+      </c>
+      <c t="s" r="D21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c t="s" r="A22">
+        <v>39</v>
+      </c>
+      <c t="s" r="D22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c t="s" r="A23">
+        <v>40</v>
+      </c>
+      <c t="s" r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c t="s" r="A24">
+        <v>41</v>
+      </c>
+      <c t="s" r="D24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c t="s" r="A25">
+        <v>43</v>
+      </c>
+      <c t="s" r="D25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c t="s" r="A26">
+        <v>44</v>
+      </c>
+      <c t="s" r="D26">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c t="s" r="A27">
+        <v>45</v>
+      </c>
+      <c t="s" r="D27">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c t="s" r="A28">
+        <v>46</v>
+      </c>
+      <c t="s" r="D28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c t="s" r="A29">
+        <v>47</v>
+      </c>
+      <c t="s" r="D29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c t="s" r="A30">
+        <v>48</v>
+      </c>
+      <c t="s" r="D30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c t="s" r="A31">
+        <v>49</v>
+      </c>
+      <c t="s" r="D31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c t="s" r="A32">
+        <v>50</v>
+      </c>
+      <c t="s" r="D32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c t="s" r="A33">
+        <v>51</v>
+      </c>
+      <c t="s" r="D33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c t="s" r="A34">
+        <v>12</v>
+      </c>
+      <c t="s" r="D34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c t="s" r="A35">
+        <v>52</v>
+      </c>
+      <c t="s" r="D35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c t="s" r="A36">
+        <v>53</v>
+      </c>
+      <c t="s" r="D36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c t="s" r="A37">
+        <v>54</v>
+      </c>
+      <c t="s" r="D37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c t="s" r="A38">
+        <v>55</v>
+      </c>
+      <c t="s" r="D38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c t="s" r="A39">
+        <v>56</v>
+      </c>
+      <c t="s" r="D39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c t="s" r="A40">
+        <v>57</v>
+      </c>
+      <c t="s" r="D40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c t="s" r="A41">
+        <v>58</v>
+      </c>
+      <c t="s" r="D41">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/docs/eventos_timeline.xlsx
+++ b/docs/eventos_timeline.xlsx
@@ -388,6 +388,7 @@
   <fonts count="6">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
@@ -409,6 +410,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="FF0000FF"/>
       <sz val="10"/>
@@ -416,6 +418,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
@@ -509,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="G3" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G31" activeCellId="0" pane="topLeft" sqref="G31"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A8" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E36" activeCellId="0" pane="topLeft" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/docs/eventos_timeline.xlsx
+++ b/docs/eventos_timeline.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
   <si>
     <t>status</t>
   </si>
@@ -188,42 +188,42 @@
     <t>Sistema de Gestión de Resoluciones de Trabajo Agrario</t>
   </si>
   <si>
+    <t>2007-02</t>
+  </si>
+  <si>
+    <t>Más de 1400 resoluciones sobre trabajo agrario</t>
+  </si>
+  <si>
+    <t>Portal de empleo</t>
+  </si>
+  <si>
+    <t>Secretaría de Empleo</t>
+  </si>
+  <si>
+    <t>Sistema de Gestión de Proyectos</t>
+  </si>
+  <si>
+    <t>Sistema de Fiscalización y seguimiento de proyectos</t>
+  </si>
+  <si>
+    <t>Sistema de Liquidación de planes sociales</t>
+  </si>
+  <si>
+    <t>Sistema de Administración de Tarjetas Magnéticas</t>
+  </si>
+  <si>
+    <t>Buscador público de expedientes</t>
+  </si>
+  <si>
+    <t>2011-11</t>
+  </si>
+  <si>
+    <t>Sistema de Mesa de Entradas General</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>Más de 1400 resoluciones sobre trabajo agrario</t>
-  </si>
-  <si>
-    <t>Portal de empleo</t>
-  </si>
-  <si>
-    <t>Secretaría de Empleo</t>
-  </si>
-  <si>
-    <t>Sistema de Gestión de Proyectos</t>
-  </si>
-  <si>
-    <t>Sistema de Fiscalización y seguimiento de proyectos</t>
-  </si>
-  <si>
-    <t>Sistema de Liquidación de planes sociales</t>
-  </si>
-  <si>
-    <t>Sistema de Administración de Tarjetas Magnéticas</t>
-  </si>
-  <si>
-    <t>Buscador público de expedientes</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>Sistema de Mesa de Entradas General</t>
-  </si>
-  <si>
     <t>1999-10</t>
   </si>
   <si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>http://www.trabajo.gob.ar/buscador</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
   <si>
     <t>2004-03</t>
@@ -471,7 +474,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -486,6 +489,10 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
@@ -512,8 +519,8 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A8" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E36" activeCellId="0" pane="topLeft" sqref="E36"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A17" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -804,68 +811,63 @@
       <c r="C25" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="G25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="26">
       <c r="C26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="27">
       <c r="C27" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="28">
       <c r="C28" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="29">
       <c r="C29" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="30">
       <c r="C30" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="31">
       <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>18</v>
@@ -873,10 +875,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="32">
       <c r="C32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>69</v>
@@ -890,7 +892,7 @@
         <v>70</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>71</v>
@@ -926,7 +928,7 @@
         <v>75</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>76</v>
@@ -945,9 +947,6 @@
       <c r="C37" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="F37" s="0" t="s">
         <v>35</v>
       </c>
@@ -971,9 +970,6 @@
       <c r="C38" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="F38" s="0" t="s">
         <v>83</v>
       </c>
@@ -992,7 +988,7 @@
         <v>86</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>87</v>
@@ -1020,8 +1016,8 @@
       <c r="C40" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>57</v>
+      <c r="E40" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>94</v>
@@ -1038,7 +1034,7 @@
       <c r="K40" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="L40" s="4"/>
+      <c r="L40" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="41">
       <c r="C41" s="0" t="s">
@@ -1047,9 +1043,6 @@
       <c r="D41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="F41" s="0" t="s">
         <v>99</v>
       </c>
@@ -1068,7 +1061,7 @@
         <v>102</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>103</v>
@@ -1088,7 +1081,7 @@
         <v>105</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>106</v>
@@ -1108,7 +1101,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="44">
       <c r="A44" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>110</v>
@@ -1120,7 +1113,7 @@
         <v>112</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>113</v>
@@ -1146,10 +1139,10 @@
         <v>118</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>18</v>

--- a/docs/eventos_timeline.xlsx
+++ b/docs/eventos_timeline.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
   <si>
     <t>status</t>
   </si>
@@ -68,6 +68,9 @@
     <t>http://juicios/</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>2006-01</t>
   </si>
   <si>
@@ -221,9 +224,6 @@
     <t>Sistema de Mesa de Entradas General</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>1999-10</t>
   </si>
   <si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>Sistema de Sumarios Administrativos</t>
+  </si>
+  <si>
+    <t>falta data</t>
+  </si>
+  <si>
+    <t>falta data!!!</t>
   </si>
   <si>
     <t>2010-06</t>
@@ -519,8 +525,8 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A17" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -595,296 +601,304 @@
       <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="5">
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="6">
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="7">
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="8">
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="9">
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="10">
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="11">
       <c r="C11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="12">
       <c r="C12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="13">
       <c r="C13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="14">
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="15">
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="16">
       <c r="C16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="17">
       <c r="C17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="18">
       <c r="C18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="19">
       <c r="C19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="20">
       <c r="C20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="21">
       <c r="C21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="22">
       <c r="C22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="23">
       <c r="C23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="24">
       <c r="C24" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="25">
       <c r="C25" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="26">
       <c r="C26" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="27">
       <c r="C27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="28">
       <c r="C28" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="29">
       <c r="C29" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="30">
       <c r="C30" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="31">
       <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="32">
       <c r="C32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="33">
@@ -892,13 +906,13 @@
         <v>70</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>71</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="34">
@@ -906,7 +920,7 @@
         <v>72</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="35">
@@ -914,10 +928,10 @@
         <v>73</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="36">
@@ -928,16 +942,16 @@
         <v>75</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>76</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="37">
@@ -947,11 +961,14 @@
       <c r="C37" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="E37" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="F37" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>78</v>
@@ -970,182 +987,191 @@
       <c r="C38" s="0" t="s">
         <v>82</v>
       </c>
+      <c r="D38" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>84</v>
+      </c>
       <c r="F38" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="39">
       <c r="C39" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="40">
       <c r="C40" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L40" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="41">
       <c r="C41" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="42">
       <c r="C42" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="43">
       <c r="C43" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="44">
       <c r="A44" s="0" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="45">
       <c r="C45" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/eventos_timeline.xlsx
+++ b/docs/eventos_timeline.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="184" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="184"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="125">
   <si>
     <t>status</t>
   </si>
@@ -384,54 +383,44 @@
   </si>
   <si>
     <t>2004-03</t>
+  </si>
+  <si>
+    <t>Al dìa de la fecha se encuentran registrados más de 16.000 Convenios, Acuerdos y Laudos, firmados por 3.500 sindicatos y casi 5.000 empleadores.</t>
+  </si>
+  <si>
+    <t>Al dìa de la fecha se encuentran registrados más de 19.000 trámites en los cuales el personal de la DNRT analiza y elabora informes detallados acerca de cada convenio que se homologa en el Ministerio de Trabajo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="M/D/YYYY" numFmtId="165"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="10"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -443,7 +432,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -451,429 +440,677 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.4183673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.2857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4183673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.280612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="17.1428571428571"/>
+    <col min="1" max="1" width="10.28515625"/>
+    <col min="2" max="2" width="17.140625"/>
+    <col min="3" max="3" width="57.28515625"/>
+    <col min="4" max="5" width="17.140625"/>
+    <col min="6" max="6" width="21.28515625"/>
+    <col min="7" max="7" width="31.140625"/>
+    <col min="8" max="8" width="29.42578125"/>
+    <col min="9" max="9" width="21.28515625"/>
+    <col min="10" max="10" width="20.42578125"/>
+    <col min="11" max="11" width="23.28515625"/>
+    <col min="12" max="12" width="27.7109375"/>
+    <col min="13" max="1025" width="17.140625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="F2" s="0" t="s">
+    <row r="2" spans="1:14" ht="12.75" customHeight="1">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="4">
-      <c r="C4" s="0" t="s">
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="6">
-      <c r="C6" s="0" t="s">
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="7">
-      <c r="C7" s="0" t="s">
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="8">
-      <c r="C8" s="0" t="s">
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="9">
-      <c r="C9" s="0" t="s">
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="10">
-      <c r="C10" s="0" t="s">
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="11">
-      <c r="C11" s="0" t="s">
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="12">
-      <c r="C12" s="0" t="s">
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="13">
-      <c r="C13" s="0" t="s">
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="14">
-      <c r="C14" s="0" t="s">
+    <row r="14" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="0" t="s">
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="15">
-      <c r="C15" s="0" t="s">
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="0" t="s">
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="16">
-      <c r="C16" s="0" t="s">
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="17">
-      <c r="C17" s="0" t="s">
+    <row r="17" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="18">
-      <c r="C18" s="0" t="s">
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="19">
-      <c r="C19" s="0" t="s">
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="20">
-      <c r="C20" s="0" t="s">
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="21">
-      <c r="C21" s="0" t="s">
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="22">
-      <c r="C22" s="0" t="s">
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="23">
-      <c r="C23" s="0" t="s">
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="24">
-      <c r="C24" s="0" t="s">
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="25">
-      <c r="C25" s="0" t="s">
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="26">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="27">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="28">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C28" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="29">
-      <c r="C29" s="0" t="s">
+    <row r="29" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="30">
-      <c r="C30" s="0" t="s">
+    <row r="30" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C30" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="31">
+    <row r="31" spans="3:11" ht="12.75" customHeight="1">
       <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
@@ -883,128 +1120,128 @@
       <c r="F31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="32">
-      <c r="C32" s="0" t="s">
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="12.75" customHeight="1">
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="33">
-      <c r="C33" s="0" t="s">
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" customHeight="1">
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="34">
-      <c r="C34" s="0" t="s">
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" customHeight="1">
+      <c r="C34" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="35">
-      <c r="C35" s="0" t="s">
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" customHeight="1">
+      <c r="C35" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="0" t="s">
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="36">
-      <c r="B36" s="0" t="s">
+    <row r="36" spans="1:12" ht="12.75" customHeight="1">
+      <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="0" t="s">
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="37">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="1:12" ht="12.75" customHeight="1">
+      <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="0" t="s">
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
         <v>78</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="K37" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="38">
-      <c r="C38" s="0" t="s">
+    <row r="38" spans="1:12" ht="12.75" customHeight="1">
+      <c r="C38" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="0" t="s">
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="39">
-      <c r="C39" s="0" t="s">
+    <row r="39" spans="1:12" ht="12.75" customHeight="1">
+      <c r="C39" t="s">
         <v>87</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1016,27 +1253,27 @@
       <c r="F39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="0" t="s">
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
         <v>90</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" t="s">
         <v>91</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" t="s">
         <v>92</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="40">
-      <c r="C40" s="0" t="s">
+    <row r="40" spans="1:12" ht="12.75" customHeight="1">
+      <c r="C40" t="s">
         <v>95</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -1045,42 +1282,42 @@
       <c r="F40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="0" t="s">
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" t="s">
         <v>97</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="K40" t="s">
         <v>98</v>
       </c>
       <c r="L40" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="41">
-      <c r="C41" s="0" t="s">
+    <row r="41" spans="1:12" ht="12.75" customHeight="1">
+      <c r="C41" t="s">
         <v>99</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>101</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="0" t="s">
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="42">
-      <c r="C42" s="0" t="s">
+    <row r="42" spans="1:12" ht="12.75" customHeight="1">
+      <c r="C42" t="s">
         <v>103</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -1089,18 +1326,18 @@
       <c r="E42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="0" t="s">
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="43">
-      <c r="C43" s="0" t="s">
+    <row r="43" spans="1:12" ht="12.75" customHeight="1">
+      <c r="C43" t="s">
         <v>106</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -1112,10 +1349,10 @@
       <c r="F43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="0" t="s">
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
         <v>109</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -1125,14 +1362,14 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>113</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -1141,54 +1378,49 @@
       <c r="E44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>115</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="0" t="s">
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
         <v>116</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" t="s">
         <v>117</v>
       </c>
-      <c r="K44" s="0" t="s">
+      <c r="K44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="45">
-      <c r="C45" s="0" t="s">
+    <row r="45" spans="1:12" ht="12.75" customHeight="1">
+      <c r="C45" t="s">
         <v>119</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://viaticos" ref="D39" r:id="rId1"/>
-    <hyperlink display="http://concursos.trabajo.gob.ar" ref="D41" r:id="rId2"/>
-    <hyperlink display="http://postulantes.trabajo.gob.ar" ref="D42" r:id="rId3"/>
-    <hyperlink display="http://callcenter" ref="D43" r:id="rId4"/>
-    <hyperlink display="http://dictamenes" ref="D44" r:id="rId5"/>
-    <hyperlink display="http://www.trabajo.gob.ar/buscador" ref="D45" r:id="rId6"/>
+    <hyperlink ref="D39" r:id="rId1"/>
+    <hyperlink ref="D41" r:id="rId2"/>
+    <hyperlink ref="D42" r:id="rId3"/>
+    <hyperlink ref="D43" r:id="rId4"/>
+    <hyperlink ref="D44" r:id="rId5"/>
+    <hyperlink ref="D45" r:id="rId6"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>